--- a/data/profiles/xlsx/bluff/profile 22-3 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 22-3 graph.xlsx
@@ -4986,11 +4986,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="53351694"/>
-        <c:axId val="82459579"/>
+        <c:axId val="17543384"/>
+        <c:axId val="4151069"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53351694"/>
+        <c:axId val="17543384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5025,12 +5025,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82459579"/>
+        <c:crossAx val="4151069"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82459579"/>
+        <c:axId val="4151069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5074,7 +5074,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53351694"/>
+        <c:crossAx val="17543384"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
